--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/TÌNH THU/New Microsoft Excel Worksheet.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/TÌNH THU/New Microsoft Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Đlý Thu Tình</t>
   </si>
@@ -60,9 +60,6 @@
     <t>26/2</t>
   </si>
   <si>
-    <t>Pha trải nghiệm</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -130,6 +127,39 @@
   </si>
   <si>
     <t>Tình trạng thanh toán:</t>
+  </si>
+  <si>
+    <t>Ngày 25/5/2020 đổi hàng</t>
+  </si>
+  <si>
+    <t>Đại lý trả về</t>
+  </si>
+  <si>
+    <t>Công ty đổi cho ĐL</t>
+  </si>
+  <si>
+    <t>Như vậy, CT trả ĐL</t>
+  </si>
+  <si>
+    <t>Doanh số chưa chiết khấu</t>
+  </si>
+  <si>
+    <t>Hôm nay ngày, 09/01/2021. Công ty trả đại lý só hàng còn nợ 1 thùng số 1(trẻ dưới 3 tuổi) 400g</t>
+  </si>
+  <si>
+    <t>24h x 225.000 = 5.400.000</t>
+  </si>
+  <si>
+    <t>Đại lý cần thanh toán Nanomilk</t>
+  </si>
+  <si>
+    <t>Trải nghiệm</t>
+  </si>
+  <si>
+    <t>Như vậy công ty còn nợ tiền hàng (150.000đ ,CK 38%) 93.000</t>
+  </si>
+  <si>
+    <t>=628.000 - 93.000 = 535.000</t>
   </si>
 </sst>
 </file>
@@ -138,9 +168,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +218,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +239,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -334,25 +377,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -392,12 +437,146 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,135 +592,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -824,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,595 +914,663 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27" t="s">
+      <c r="K5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="23" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="G6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="H6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="I6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="80"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="68">
         <v>1039</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="75">
         <v>43886</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="31">
         <v>48</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="32">
         <v>455000</v>
       </c>
-      <c r="H7" s="48">
-        <f t="shared" ref="H7:H19" si="0">F7*G7</f>
+      <c r="H7" s="33">
+        <f t="shared" ref="H7:H18" si="0">F7*G7</f>
         <v>21840000</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="34">
         <v>0.38</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="35">
         <f t="shared" ref="J7:J19" si="1">F7*G7*(1-I7)</f>
         <v>13540800</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="86">
+        <f>SUM(J7:J16)</f>
+        <v>158602200</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="37">
         <v>24</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="38">
         <v>265000</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>6360000</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="40">
         <v>0.38</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="41">
         <f t="shared" si="1"/>
         <v>3943200</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="87"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="37">
         <v>48</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="38">
         <v>465000</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
         <v>22320000</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="40">
         <v>0.38</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="41">
         <f t="shared" si="1"/>
         <v>13838400</v>
       </c>
-      <c r="K9" s="60"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="37">
         <v>12</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="38">
         <v>475000</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="39">
         <f t="shared" si="0"/>
         <v>5700000</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="40">
         <v>0.38</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="41">
         <f t="shared" si="1"/>
         <v>3534000</v>
       </c>
-      <c r="K10" s="60"/>
+      <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="37">
         <v>132</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="38">
         <v>485000</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>64020000</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="40">
         <v>0.38</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="41">
         <f t="shared" si="1"/>
         <v>39692400</v>
       </c>
-      <c r="K11" s="60"/>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="37">
         <v>48</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="38">
         <v>485000</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="39">
         <f t="shared" si="0"/>
         <v>23280000</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="40">
         <v>0.38</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="41">
         <f t="shared" si="1"/>
         <v>14433600</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="37">
         <v>48</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="38">
         <v>550000</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="39">
         <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="40">
         <v>0.38</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="41">
         <f t="shared" si="1"/>
         <v>16368000</v>
       </c>
-      <c r="K13" s="60"/>
+      <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="37">
         <v>21</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="38">
         <v>450000</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="39">
         <f t="shared" si="0"/>
         <v>9450000</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="40">
         <v>0.38</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="41">
         <f t="shared" si="1"/>
         <v>5859000</v>
       </c>
-      <c r="K14" s="60"/>
+      <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="37">
         <v>84</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="38">
         <v>455000</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="39">
         <f t="shared" si="0"/>
         <v>38220000</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="40">
         <v>0.38</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="41">
         <f t="shared" si="1"/>
         <v>23696400</v>
       </c>
-      <c r="K15" s="60"/>
+      <c r="K15" s="87"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="42">
         <v>84</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="43">
         <v>455000</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="44">
         <f t="shared" si="0"/>
         <v>38220000</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="45">
         <v>0.38</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="46">
         <f t="shared" si="1"/>
         <v>23696400</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="68">
         <v>1041</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="31">
         <v>5</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="32">
         <v>465000</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="33">
         <f t="shared" si="0"/>
         <v>2325000</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="34">
         <v>1</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="42">
         <v>5</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="43">
         <v>475000</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="44">
         <f t="shared" si="0"/>
         <v>2375000</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="45">
         <v>1</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="69"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="27">
         <v>1043</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="22">
         <v>2</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="23">
         <v>550000</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="24">
         <f>F19*G19</f>
         <v>1100000</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="25">
         <v>1</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42">
+      <c r="K19" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="30">
         <f>SUM(F7:F19)</f>
         <v>561</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="5">
+      <c r="G20" s="30"/>
+      <c r="H20" s="2">
         <f>SUM(H7:H19)</f>
         <v>261610000</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5">
+      <c r="I20" s="3"/>
+      <c r="J20" s="2">
         <f>SUM(J7:J19)</f>
         <v>158602200</v>
       </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="70">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="48">
         <f>J20</f>
         <v>158602200</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="49">
+        <v>43886</v>
+      </c>
+      <c r="D23" s="50">
+        <v>100000000</v>
+      </c>
+      <c r="E23" s="56">
+        <f>D23+D24+D25+D26</f>
+        <v>157974200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="60"/>
+      <c r="C24" s="51">
+        <v>43976</v>
+      </c>
+      <c r="D24" s="52">
+        <v>20000000</v>
+      </c>
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="60"/>
+      <c r="C25" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="52">
+        <v>34974200</v>
+      </c>
+      <c r="E25" s="57"/>
+    </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="75">
-        <v>43886</v>
-      </c>
-      <c r="D26" s="76">
-        <v>100000000</v>
-      </c>
-      <c r="E26" s="77">
-        <f>D26+D27+D28+D29</f>
-        <v>157974200</v>
-      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="55">
+        <v>3000000</v>
+      </c>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="78"/>
-      <c r="C27" s="79">
-        <v>43976</v>
-      </c>
-      <c r="D27" s="80">
-        <v>20000000</v>
-      </c>
-      <c r="E27" s="81"/>
+      <c r="B27" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="2">
+        <f>E22-E23</f>
+        <v>628000</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="78"/>
-      <c r="C28" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="80">
-        <v>34974200</v>
-      </c>
-      <c r="E28" s="81"/>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="85">
-        <v>3000000</v>
-      </c>
-      <c r="E29" s="86"/>
+      <c r="B29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="90">
+        <v>72270000</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5">
-        <f>E25-E26</f>
-        <v>628000</v>
-      </c>
+      <c r="B30" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="90">
+        <v>66720000</v>
+      </c>
+      <c r="E30" s="89"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="90">
+        <f>D29-D30</f>
+        <v>5550000</v>
+      </c>
+      <c r="E31" s="89"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="26">
+    <mergeCell ref="K7:K16"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
@@ -1451,8 +1587,13 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.35" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.47" right="0.35" top="0.41" bottom="0.44" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>